--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.25070633333333</v>
+        <v>19.88361</v>
       </c>
       <c r="H2">
-        <v>57.752119</v>
+        <v>59.65083</v>
       </c>
       <c r="I2">
-        <v>0.08333751665101854</v>
+        <v>0.08287076207598171</v>
       </c>
       <c r="J2">
-        <v>0.08333751665101856</v>
+        <v>0.08287076207598171</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.42467</v>
+        <v>11.81073566666667</v>
       </c>
       <c r="N2">
-        <v>37.27401</v>
+        <v>35.432207</v>
       </c>
       <c r="O2">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="P2">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="Q2">
-        <v>239.1836734585767</v>
+        <v>234.84006180909</v>
       </c>
       <c r="R2">
-        <v>2152.65306112719</v>
+        <v>2113.56055628181</v>
       </c>
       <c r="S2">
-        <v>0.02772645299245979</v>
+        <v>0.02549392261014485</v>
       </c>
       <c r="T2">
-        <v>0.02772645299245979</v>
+        <v>0.02549392261014485</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.25070633333333</v>
+        <v>19.88361</v>
       </c>
       <c r="H3">
-        <v>57.752119</v>
+        <v>59.65083</v>
       </c>
       <c r="I3">
-        <v>0.08333751665101854</v>
+        <v>0.08287076207598171</v>
       </c>
       <c r="J3">
-        <v>0.08333751665101856</v>
+        <v>0.08287076207598171</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>37.373207</v>
       </c>
       <c r="O3">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="P3">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="Q3">
-        <v>239.8202108972926</v>
+        <v>247.70475747909</v>
       </c>
       <c r="R3">
-        <v>2158.381898075633</v>
+        <v>2229.34281731181</v>
       </c>
       <c r="S3">
-        <v>0.02780024116168261</v>
+        <v>0.0268904967435679</v>
       </c>
       <c r="T3">
-        <v>0.02780024116168261</v>
+        <v>0.0268904967435679</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.25070633333333</v>
+        <v>19.88361</v>
       </c>
       <c r="H4">
-        <v>57.752119</v>
+        <v>59.65083</v>
       </c>
       <c r="I4">
-        <v>0.08333751665101854</v>
+        <v>0.08287076207598171</v>
       </c>
       <c r="J4">
-        <v>0.08333751665101856</v>
+        <v>0.08287076207598171</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.546802333333333</v>
+        <v>3.197710666666667</v>
       </c>
       <c r="N4">
-        <v>10.640407</v>
+        <v>9.593132000000001</v>
       </c>
       <c r="O4">
-        <v>0.09497425211730705</v>
+        <v>0.08329089836363292</v>
       </c>
       <c r="P4">
-        <v>0.09497425211730702</v>
+        <v>0.0832908983636329</v>
       </c>
       <c r="Q4">
-        <v>68.27845014138144</v>
+        <v>63.58203178884001</v>
       </c>
       <c r="R4">
-        <v>614.506051272433</v>
+        <v>572.23828609956</v>
       </c>
       <c r="S4">
-        <v>0.007914918317244109</v>
+        <v>0.006902380221387398</v>
       </c>
       <c r="T4">
-        <v>0.007914918317244108</v>
+        <v>0.006902380221387397</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.25070633333333</v>
+        <v>19.88361</v>
       </c>
       <c r="H5">
-        <v>57.752119</v>
+        <v>59.65083</v>
       </c>
       <c r="I5">
-        <v>0.08333751665101854</v>
+        <v>0.08287076207598171</v>
       </c>
       <c r="J5">
-        <v>0.08333751665101856</v>
+        <v>0.08287076207598171</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.114294</v>
+        <v>8.081220666666667</v>
       </c>
       <c r="N5">
-        <v>18.342882</v>
+        <v>24.243662</v>
       </c>
       <c r="O5">
-        <v>0.1637250811577051</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="P5">
-        <v>0.163725081157705</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="Q5">
-        <v>117.704478229662</v>
+        <v>160.68384005994</v>
       </c>
       <c r="R5">
-        <v>1059.340304066958</v>
+        <v>1446.15456053946</v>
       </c>
       <c r="S5">
-        <v>0.01364444167716961</v>
+        <v>0.01744362248771321</v>
       </c>
       <c r="T5">
-        <v>0.01364444167716961</v>
+        <v>0.01744362248771321</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.25070633333333</v>
+        <v>19.88361</v>
       </c>
       <c r="H6">
-        <v>57.752119</v>
+        <v>59.65083</v>
       </c>
       <c r="I6">
-        <v>0.08333751665101854</v>
+        <v>0.08287076207598171</v>
       </c>
       <c r="J6">
-        <v>0.08333751665101856</v>
+        <v>0.08287076207598171</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.801381</v>
+        <v>2.844675333333333</v>
       </c>
       <c r="N6">
-        <v>8.404142999999999</v>
+        <v>8.534026000000001</v>
       </c>
       <c r="O6">
-        <v>0.07501378435166071</v>
+        <v>0.07409537283533685</v>
       </c>
       <c r="P6">
-        <v>0.07501378435166069</v>
+        <v>0.07409537283533686</v>
       </c>
       <c r="Q6">
-        <v>53.92856295877966</v>
+        <v>56.56241490462001</v>
       </c>
       <c r="R6">
-        <v>485.357066629017</v>
+        <v>509.06173414158</v>
       </c>
       <c r="S6">
-        <v>0.006251462502462439</v>
+        <v>0.006140340013168358</v>
       </c>
       <c r="T6">
-        <v>0.006251462502462438</v>
+        <v>0.006140340013168359</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>410.61348</v>
       </c>
       <c r="I7">
-        <v>0.5925238470753371</v>
+        <v>0.5704506040615172</v>
       </c>
       <c r="J7">
-        <v>0.5925238470753372</v>
+        <v>0.5704506040615173</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.42467</v>
+        <v>11.81073566666667</v>
       </c>
       <c r="N7">
-        <v>37.27401</v>
+        <v>35.432207</v>
       </c>
       <c r="O7">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="P7">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="Q7">
-        <v>1700.5789955172</v>
+        <v>1616.54909115004</v>
       </c>
       <c r="R7">
-        <v>15305.2109596548</v>
+        <v>14548.94182035036</v>
       </c>
       <c r="S7">
-        <v>0.1971331190685891</v>
+        <v>0.1754904044386685</v>
       </c>
       <c r="T7">
-        <v>0.1971331190685891</v>
+        <v>0.1754904044386685</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>410.61348</v>
       </c>
       <c r="I8">
-        <v>0.5925238470753371</v>
+        <v>0.5704506040615172</v>
       </c>
       <c r="J8">
-        <v>0.5925238470753372</v>
+        <v>0.5704506040615173</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>37.373207</v>
       </c>
       <c r="O8">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="P8">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="Q8">
         <v>1705.10473167004</v>
@@ -948,10 +948,10 @@
         <v>15345.94258503036</v>
       </c>
       <c r="S8">
-        <v>0.1976577477310874</v>
+        <v>0.1851038861790369</v>
       </c>
       <c r="T8">
-        <v>0.1976577477310874</v>
+        <v>0.1851038861790369</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>410.61348</v>
       </c>
       <c r="I9">
-        <v>0.5925238470753371</v>
+        <v>0.5704506040615172</v>
       </c>
       <c r="J9">
-        <v>0.5925238470753372</v>
+        <v>0.5704506040615173</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.546802333333333</v>
+        <v>3.197710666666667</v>
       </c>
       <c r="N9">
-        <v>10.640407</v>
+        <v>9.593132000000001</v>
       </c>
       <c r="O9">
-        <v>0.09497425211730705</v>
+        <v>0.08329089836363292</v>
       </c>
       <c r="P9">
-        <v>0.09497425211730702</v>
+        <v>0.0832908983636329</v>
       </c>
       <c r="Q9">
-        <v>485.45494965404</v>
+        <v>437.6743682910401</v>
       </c>
       <c r="R9">
-        <v>4369.094546886359</v>
+        <v>3939.06931461936</v>
       </c>
       <c r="S9">
-        <v>0.05627450923764975</v>
+        <v>0.04751334328436083</v>
       </c>
       <c r="T9">
-        <v>0.05627450923764975</v>
+        <v>0.04751334328436083</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>410.61348</v>
       </c>
       <c r="I10">
-        <v>0.5925238470753371</v>
+        <v>0.5704506040615172</v>
       </c>
       <c r="J10">
-        <v>0.5925238470753372</v>
+        <v>0.5704506040615173</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.114294</v>
+        <v>8.081220666666667</v>
       </c>
       <c r="N10">
-        <v>18.342882</v>
+        <v>24.243662</v>
       </c>
       <c r="O10">
-        <v>0.1637250811577051</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="P10">
-        <v>0.163725081157705</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="Q10">
-        <v>836.87051236104</v>
+        <v>1106.08604686264</v>
       </c>
       <c r="R10">
-        <v>7531.834611249359</v>
+        <v>9954.774421763759</v>
       </c>
       <c r="S10">
-        <v>0.09701101495028522</v>
+        <v>0.1200752199673698</v>
       </c>
       <c r="T10">
-        <v>0.09701101495028519</v>
+        <v>0.1200752199673698</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>410.61348</v>
       </c>
       <c r="I11">
-        <v>0.5925238470753371</v>
+        <v>0.5704506040615172</v>
       </c>
       <c r="J11">
-        <v>0.5925238470753372</v>
+        <v>0.5704506040615173</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.801381</v>
+        <v>2.844675333333333</v>
       </c>
       <c r="N11">
-        <v>8.404142999999999</v>
+        <v>8.534026000000001</v>
       </c>
       <c r="O11">
-        <v>0.07501378435166071</v>
+        <v>0.07409537283533685</v>
       </c>
       <c r="P11">
-        <v>0.07501378435166069</v>
+        <v>0.07409537283533686</v>
       </c>
       <c r="Q11">
-        <v>383.42826707196</v>
+        <v>389.35401269672</v>
       </c>
       <c r="R11">
-        <v>3450.85440364764</v>
+        <v>3504.18611427048</v>
       </c>
       <c r="S11">
-        <v>0.04444745608772573</v>
+        <v>0.04226775019208123</v>
       </c>
       <c r="T11">
-        <v>0.04444745608772572</v>
+        <v>0.04226775019208125</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.62255866666667</v>
+        <v>28.56702866666667</v>
       </c>
       <c r="H12">
-        <v>115.867676</v>
+        <v>85.701086</v>
       </c>
       <c r="I12">
-        <v>0.1671994819439409</v>
+        <v>0.1190614499003492</v>
       </c>
       <c r="J12">
-        <v>0.1671994819439409</v>
+        <v>0.1190614499003492</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.42467</v>
+        <v>11.81073566666667</v>
       </c>
       <c r="N12">
-        <v>37.27401</v>
+        <v>35.432207</v>
       </c>
       <c r="O12">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="P12">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="Q12">
-        <v>479.8725459889734</v>
+        <v>337.3976243640891</v>
       </c>
       <c r="R12">
-        <v>4318.852913900761</v>
+        <v>3036.578619276802</v>
       </c>
       <c r="S12">
-        <v>0.05562739043323349</v>
+        <v>0.03662743425513724</v>
       </c>
       <c r="T12">
-        <v>0.05562739043323348</v>
+        <v>0.03662743425513724</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.62255866666667</v>
+        <v>28.56702866666667</v>
       </c>
       <c r="H13">
-        <v>115.867676</v>
+        <v>85.701086</v>
       </c>
       <c r="I13">
-        <v>0.1671994819439409</v>
+        <v>0.1190614499003492</v>
       </c>
       <c r="J13">
-        <v>0.1671994819439409</v>
+        <v>0.1190614499003492</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>37.373207</v>
       </c>
       <c r="O13">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="P13">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="Q13">
-        <v>481.1496266396591</v>
+        <v>355.8804919114224</v>
       </c>
       <c r="R13">
-        <v>4330.346639756932</v>
+        <v>3202.924427202802</v>
       </c>
       <c r="S13">
-        <v>0.05577543112563029</v>
+        <v>0.03863390960365903</v>
       </c>
       <c r="T13">
-        <v>0.05577543112563028</v>
+        <v>0.03863390960365903</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>38.62255866666667</v>
+        <v>28.56702866666667</v>
       </c>
       <c r="H14">
-        <v>115.867676</v>
+        <v>85.701086</v>
       </c>
       <c r="I14">
-        <v>0.1671994819439409</v>
+        <v>0.1190614499003492</v>
       </c>
       <c r="J14">
-        <v>0.1671994819439409</v>
+        <v>0.1190614499003492</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.546802333333333</v>
+        <v>3.197710666666667</v>
       </c>
       <c r="N14">
-        <v>10.640407</v>
+        <v>9.593132000000001</v>
       </c>
       <c r="O14">
-        <v>0.09497425211730705</v>
+        <v>0.08329089836363292</v>
       </c>
       <c r="P14">
-        <v>0.09497425211730702</v>
+        <v>0.0832908983636329</v>
       </c>
       <c r="Q14">
-        <v>136.9865811982369</v>
+        <v>91.34909228237247</v>
       </c>
       <c r="R14">
-        <v>1232.879230784132</v>
+        <v>822.1418305413521</v>
       </c>
       <c r="S14">
-        <v>0.01587964575202697</v>
+        <v>0.009916735122676757</v>
       </c>
       <c r="T14">
-        <v>0.01587964575202696</v>
+        <v>0.009916735122676755</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>38.62255866666667</v>
+        <v>28.56702866666667</v>
       </c>
       <c r="H15">
-        <v>115.867676</v>
+        <v>85.701086</v>
       </c>
       <c r="I15">
-        <v>0.1671994819439409</v>
+        <v>0.1190614499003492</v>
       </c>
       <c r="J15">
-        <v>0.1671994819439409</v>
+        <v>0.1190614499003492</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.114294</v>
+        <v>8.081220666666667</v>
       </c>
       <c r="N15">
-        <v>18.342882</v>
+        <v>24.243662</v>
       </c>
       <c r="O15">
-        <v>0.1637250811577051</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="P15">
-        <v>0.163725081157705</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="Q15">
-        <v>236.149678720248</v>
+        <v>230.8564624463258</v>
       </c>
       <c r="R15">
-        <v>2125.347108482232</v>
+        <v>2077.708162016932</v>
       </c>
       <c r="S15">
-        <v>0.02737474875079796</v>
+        <v>0.02506146839819402</v>
       </c>
       <c r="T15">
-        <v>0.02737474875079796</v>
+        <v>0.02506146839819402</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>38.62255866666667</v>
+        <v>28.56702866666667</v>
       </c>
       <c r="H16">
-        <v>115.867676</v>
+        <v>85.701086</v>
       </c>
       <c r="I16">
-        <v>0.1671994819439409</v>
+        <v>0.1190614499003492</v>
       </c>
       <c r="J16">
-        <v>0.1671994819439409</v>
+        <v>0.1190614499003492</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.801381</v>
+        <v>2.844675333333333</v>
       </c>
       <c r="N16">
-        <v>8.404142999999999</v>
+        <v>8.534026000000001</v>
       </c>
       <c r="O16">
-        <v>0.07501378435166071</v>
+        <v>0.07409537283533685</v>
       </c>
       <c r="P16">
-        <v>0.07501378435166069</v>
+        <v>0.07409537283533686</v>
       </c>
       <c r="Q16">
-        <v>108.1965020201853</v>
+        <v>81.26392179469291</v>
       </c>
       <c r="R16">
-        <v>973.768518181668</v>
+        <v>731.375296152236</v>
       </c>
       <c r="S16">
-        <v>0.01254226588225217</v>
+        <v>0.008821902520682153</v>
       </c>
       <c r="T16">
-        <v>0.01254226588225216</v>
+        <v>0.008821902520682155</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.120069</v>
+        <v>1.897401333333333</v>
       </c>
       <c r="H17">
-        <v>3.360207</v>
+        <v>5.692203999999999</v>
       </c>
       <c r="I17">
-        <v>0.004848849040731632</v>
+        <v>0.007907975184451771</v>
       </c>
       <c r="J17">
-        <v>0.004848849040731633</v>
+        <v>0.007907975184451773</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.42467</v>
+        <v>11.81073566666667</v>
       </c>
       <c r="N17">
-        <v>37.27401</v>
+        <v>35.432207</v>
       </c>
       <c r="O17">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="P17">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="Q17">
-        <v>13.91648770223</v>
+        <v>22.40970560158089</v>
       </c>
       <c r="R17">
-        <v>125.24838932007</v>
+        <v>201.687350414228</v>
       </c>
       <c r="S17">
-        <v>0.001613215636822509</v>
+        <v>0.002432767628835289</v>
       </c>
       <c r="T17">
-        <v>0.001613215636822509</v>
+        <v>0.002432767628835289</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.120069</v>
+        <v>1.897401333333333</v>
       </c>
       <c r="H18">
-        <v>3.360207</v>
+        <v>5.692203999999999</v>
       </c>
       <c r="I18">
-        <v>0.004848849040731632</v>
+        <v>0.007907975184451771</v>
       </c>
       <c r="J18">
-        <v>0.004848849040731633</v>
+        <v>0.007907975184451773</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>37.373207</v>
       </c>
       <c r="O18">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="P18">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="Q18">
-        <v>13.95352353042767</v>
+        <v>23.63732426424755</v>
       </c>
       <c r="R18">
-        <v>125.581711773849</v>
+        <v>212.735918378228</v>
       </c>
       <c r="S18">
-        <v>0.001617508873625469</v>
+        <v>0.002566036266816809</v>
       </c>
       <c r="T18">
-        <v>0.001617508873625469</v>
+        <v>0.002566036266816809</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.120069</v>
+        <v>1.897401333333333</v>
       </c>
       <c r="H19">
-        <v>3.360207</v>
+        <v>5.692203999999999</v>
       </c>
       <c r="I19">
-        <v>0.004848849040731632</v>
+        <v>0.007907975184451771</v>
       </c>
       <c r="J19">
-        <v>0.004848849040731633</v>
+        <v>0.007907975184451773</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.546802333333333</v>
+        <v>3.197710666666667</v>
       </c>
       <c r="N19">
-        <v>10.640407</v>
+        <v>9.593132000000001</v>
       </c>
       <c r="O19">
-        <v>0.09497425211730705</v>
+        <v>0.08329089836363292</v>
       </c>
       <c r="P19">
-        <v>0.09497425211730702</v>
+        <v>0.0832908983636329</v>
       </c>
       <c r="Q19">
-        <v>3.972663342694333</v>
+        <v>6.067340482547555</v>
       </c>
       <c r="R19">
-        <v>35.753970084249</v>
+        <v>54.606064342928</v>
       </c>
       <c r="S19">
-        <v>0.0004605158112732085</v>
+        <v>0.0006586623573503037</v>
       </c>
       <c r="T19">
-        <v>0.0004605158112732084</v>
+        <v>0.0006586623573503037</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.120069</v>
+        <v>1.897401333333333</v>
       </c>
       <c r="H20">
-        <v>3.360207</v>
+        <v>5.692203999999999</v>
       </c>
       <c r="I20">
-        <v>0.004848849040731632</v>
+        <v>0.007907975184451771</v>
       </c>
       <c r="J20">
-        <v>0.004848849040731633</v>
+        <v>0.007907975184451773</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.114294</v>
+        <v>8.081220666666667</v>
       </c>
       <c r="N20">
-        <v>18.342882</v>
+        <v>24.243662</v>
       </c>
       <c r="O20">
-        <v>0.1637250811577051</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="P20">
-        <v>0.163725081157705</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="Q20">
-        <v>6.848431166286</v>
+        <v>15.33331886789422</v>
       </c>
       <c r="R20">
-        <v>61.635880496574</v>
+        <v>137.999869811048</v>
       </c>
       <c r="S20">
-        <v>0.000793878202715247</v>
+        <v>0.001664564561784824</v>
       </c>
       <c r="T20">
-        <v>0.0007938782027152469</v>
+        <v>0.001664564561784825</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.120069</v>
+        <v>1.897401333333333</v>
       </c>
       <c r="H21">
-        <v>3.360207</v>
+        <v>5.692203999999999</v>
       </c>
       <c r="I21">
-        <v>0.004848849040731632</v>
+        <v>0.007907975184451771</v>
       </c>
       <c r="J21">
-        <v>0.004848849040731633</v>
+        <v>0.007907975184451773</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.801381</v>
+        <v>2.844675333333333</v>
       </c>
       <c r="N21">
-        <v>8.404142999999999</v>
+        <v>8.534026000000001</v>
       </c>
       <c r="O21">
-        <v>0.07501378435166071</v>
+        <v>0.07409537283533685</v>
       </c>
       <c r="P21">
-        <v>0.07501378435166069</v>
+        <v>0.07409537283533686</v>
       </c>
       <c r="Q21">
-        <v>3.137740015288999</v>
+        <v>5.397490770367111</v>
       </c>
       <c r="R21">
-        <v>28.239660137601</v>
+        <v>48.577416933304</v>
       </c>
       <c r="S21">
-        <v>0.0003637305162951996</v>
+        <v>0.0005859443696645456</v>
       </c>
       <c r="T21">
-        <v>0.0003637305162951995</v>
+        <v>0.0005859443696645459</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>35.132386</v>
+        <v>52.71596533333334</v>
       </c>
       <c r="H22">
-        <v>105.397158</v>
+        <v>158.147896</v>
       </c>
       <c r="I22">
-        <v>0.1520903052889719</v>
+        <v>0.2197092087777001</v>
       </c>
       <c r="J22">
-        <v>0.1520903052889719</v>
+        <v>0.2197092087777001</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.42467</v>
+        <v>11.81073566666667</v>
       </c>
       <c r="N22">
-        <v>37.27401</v>
+        <v>35.432207</v>
       </c>
       <c r="O22">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="P22">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="Q22">
-        <v>436.50830236262</v>
+        <v>622.6143319651636</v>
       </c>
       <c r="R22">
-        <v>3928.57472126358</v>
+        <v>5603.528987686472</v>
       </c>
       <c r="S22">
-        <v>0.05060055626401963</v>
+        <v>0.06759017806761844</v>
       </c>
       <c r="T22">
-        <v>0.05060055626401963</v>
+        <v>0.06759017806761844</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>35.132386</v>
+        <v>52.71596533333334</v>
       </c>
       <c r="H23">
-        <v>105.397158</v>
+        <v>158.147896</v>
       </c>
       <c r="I23">
-        <v>0.1520903052889719</v>
+        <v>0.2197092087777001</v>
       </c>
       <c r="J23">
-        <v>0.1520903052889719</v>
+        <v>0.2197092087777001</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>37.373207</v>
       </c>
       <c r="O23">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="P23">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="Q23">
-        <v>437.6699781273006</v>
+        <v>656.7215615358302</v>
       </c>
       <c r="R23">
-        <v>3939.029803145706</v>
+        <v>5910.494053822472</v>
       </c>
       <c r="S23">
-        <v>0.05073521908617699</v>
+        <v>0.071292813233112</v>
       </c>
       <c r="T23">
-        <v>0.05073521908617699</v>
+        <v>0.071292813233112</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>35.132386</v>
+        <v>52.71596533333334</v>
       </c>
       <c r="H24">
-        <v>105.397158</v>
+        <v>158.147896</v>
       </c>
       <c r="I24">
-        <v>0.1520903052889719</v>
+        <v>0.2197092087777001</v>
       </c>
       <c r="J24">
-        <v>0.1520903052889719</v>
+        <v>0.2197092087777001</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.546802333333333</v>
+        <v>3.197710666666667</v>
       </c>
       <c r="N24">
-        <v>10.640407</v>
+        <v>9.593132000000001</v>
       </c>
       <c r="O24">
-        <v>0.09497425211730705</v>
+        <v>0.08329089836363292</v>
       </c>
       <c r="P24">
-        <v>0.09497425211730702</v>
+        <v>0.0832908983636329</v>
       </c>
       <c r="Q24">
-        <v>124.6076286403673</v>
+        <v>168.5704046500302</v>
       </c>
       <c r="R24">
-        <v>1121.468657763306</v>
+        <v>1517.133641850272</v>
       </c>
       <c r="S24">
-        <v>0.01444466299911301</v>
+        <v>0.01829977737785763</v>
       </c>
       <c r="T24">
-        <v>0.01444466299911301</v>
+        <v>0.01829977737785762</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>35.132386</v>
+        <v>52.71596533333334</v>
       </c>
       <c r="H25">
-        <v>105.397158</v>
+        <v>158.147896</v>
       </c>
       <c r="I25">
-        <v>0.1520903052889719</v>
+        <v>0.2197092087777001</v>
       </c>
       <c r="J25">
-        <v>0.1520903052889719</v>
+        <v>0.2197092087777001</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.114294</v>
+        <v>8.081220666666667</v>
       </c>
       <c r="N25">
-        <v>18.342882</v>
+        <v>24.243662</v>
       </c>
       <c r="O25">
-        <v>0.1637250811577051</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="P25">
-        <v>0.163725081157705</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="Q25">
-        <v>214.809736925484</v>
+        <v>426.0093485150169</v>
       </c>
       <c r="R25">
-        <v>1933.287632329356</v>
+        <v>3834.084136635152</v>
       </c>
       <c r="S25">
-        <v>0.02490099757673706</v>
+        <v>0.04624700435937153</v>
       </c>
       <c r="T25">
-        <v>0.02490099757673706</v>
+        <v>0.04624700435937153</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>35.132386</v>
+        <v>52.71596533333334</v>
       </c>
       <c r="H26">
-        <v>105.397158</v>
+        <v>158.147896</v>
       </c>
       <c r="I26">
-        <v>0.1520903052889719</v>
+        <v>0.2197092087777001</v>
       </c>
       <c r="J26">
-        <v>0.1520903052889719</v>
+        <v>0.2197092087777001</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.801381</v>
+        <v>2.844675333333333</v>
       </c>
       <c r="N26">
-        <v>8.404142999999999</v>
+        <v>8.534026000000001</v>
       </c>
       <c r="O26">
-        <v>0.07501378435166071</v>
+        <v>0.07409537283533685</v>
       </c>
       <c r="P26">
-        <v>0.07501378435166069</v>
+        <v>0.07409537283533686</v>
       </c>
       <c r="Q26">
-        <v>98.41919862506597</v>
+        <v>149.9598062565885</v>
       </c>
       <c r="R26">
-        <v>885.7727876255939</v>
+        <v>1349.638256309296</v>
       </c>
       <c r="S26">
-        <v>0.01140886936292518</v>
+        <v>0.01627943573974056</v>
       </c>
       <c r="T26">
-        <v>0.01140886936292518</v>
+        <v>0.01627943573974056</v>
       </c>
     </row>
   </sheetData>
